--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H2">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I2">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J2">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N2">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O2">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P2">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q2">
-        <v>19.8185993763525</v>
+        <v>87.886381480832</v>
       </c>
       <c r="R2">
-        <v>79.27439750541001</v>
+        <v>351.545525923328</v>
       </c>
       <c r="S2">
-        <v>0.000357981377418114</v>
+        <v>0.001611461040445637</v>
       </c>
       <c r="T2">
-        <v>0.0002179406161357955</v>
+        <v>0.0009704721950938559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H3">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I3">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J3">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.160829</v>
       </c>
       <c r="O3">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P3">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q3">
-        <v>4.488270520735834</v>
+        <v>21.14605122253067</v>
       </c>
       <c r="R3">
-        <v>26.929623124415</v>
+        <v>126.876307335184</v>
       </c>
       <c r="S3">
-        <v>8.10711813043287E-05</v>
+        <v>0.0003877283047750462</v>
       </c>
       <c r="T3">
-        <v>7.403473051484553E-05</v>
+        <v>0.0003502531518829038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H4">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I4">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J4">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N4">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O4">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P4">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q4">
-        <v>28.36358637015</v>
+        <v>292.039821500592</v>
       </c>
       <c r="R4">
-        <v>170.1815182209</v>
+        <v>1752.238929003552</v>
       </c>
       <c r="S4">
-        <v>0.0005123286224464091</v>
+        <v>0.005354763578581765</v>
       </c>
       <c r="T4">
-        <v>0.0004678618331152492</v>
+        <v>0.004837208937000845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H5">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I5">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J5">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N5">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O5">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P5">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q5">
-        <v>236.264129340365</v>
+        <v>993.114035105268</v>
       </c>
       <c r="R5">
-        <v>945.0565173614599</v>
+        <v>3972.456140421072</v>
       </c>
       <c r="S5">
-        <v>0.004267615326876919</v>
+        <v>0.0182094716988768</v>
       </c>
       <c r="T5">
-        <v>0.002598142731552766</v>
+        <v>0.010966312884748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H6">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I6">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J6">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N6">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O6">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P6">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q6">
-        <v>9.449107543825001</v>
+        <v>33.06873910389334</v>
       </c>
       <c r="R6">
-        <v>56.69464526295</v>
+        <v>198.41243462336</v>
       </c>
       <c r="S6">
-        <v>0.0001706782840540427</v>
+        <v>0.0006063395013504748</v>
       </c>
       <c r="T6">
-        <v>0.000155864520059764</v>
+        <v>0.0005477348928196693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H7">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I7">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J7">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N7">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O7">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P7">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q7">
-        <v>26.9280839889925</v>
+        <v>43.56279592108</v>
       </c>
       <c r="R7">
-        <v>161.568503933955</v>
+        <v>261.37677552648</v>
       </c>
       <c r="S7">
-        <v>0.0004863992865768467</v>
+        <v>0.0007987557031804192</v>
       </c>
       <c r="T7">
-        <v>0.0004441829948073945</v>
+        <v>0.0007215534671519615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I8">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J8">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N8">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O8">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P8">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q8">
-        <v>3226.704441020272</v>
+        <v>3037.089268317808</v>
       </c>
       <c r="R8">
-        <v>19360.22664612163</v>
+        <v>18222.53560990685</v>
       </c>
       <c r="S8">
-        <v>0.05828363944304987</v>
+        <v>0.05568725153756737</v>
       </c>
       <c r="T8">
-        <v>0.05322499894744007</v>
+        <v>0.05030490456982585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I9">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J9">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.160829</v>
       </c>
       <c r="O9">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P9">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q9">
         <v>730.7439918806244</v>
@@ -1013,10 +1013,10 @@
         <v>6576.695926925619</v>
       </c>
       <c r="S9">
-        <v>0.01319935560459276</v>
+        <v>0.01339872519057092</v>
       </c>
       <c r="T9">
-        <v>0.01808060619261257</v>
+        <v>0.01815554476452176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I10">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J10">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N10">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O10">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P10">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q10">
-        <v>4617.930276799861</v>
+        <v>10092.018727547</v>
       </c>
       <c r="R10">
-        <v>41561.37249119874</v>
+        <v>90828.16854792299</v>
       </c>
       <c r="S10">
-        <v>0.08341321250391387</v>
+        <v>0.1850445396075008</v>
       </c>
       <c r="T10">
-        <v>0.1142602329782829</v>
+        <v>0.2507391094668126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I11">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J11">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N11">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O11">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P11">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q11">
-        <v>38466.61920549152</v>
+        <v>34319.03700451966</v>
       </c>
       <c r="R11">
-        <v>230799.7152329492</v>
+        <v>205914.222027118</v>
       </c>
       <c r="S11">
-        <v>0.69481869360711</v>
+        <v>0.6292646271988945</v>
       </c>
       <c r="T11">
-        <v>0.6345129540518094</v>
+        <v>0.5684442335792508</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I12">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J12">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N12">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O12">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P12">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q12">
-        <v>1538.42744869843</v>
+        <v>1142.756260492307</v>
       </c>
       <c r="R12">
-        <v>13845.84703828587</v>
+        <v>10284.80634443076</v>
       </c>
       <c r="S12">
-        <v>0.02778846106551941</v>
+        <v>0.02095327127457546</v>
       </c>
       <c r="T12">
-        <v>0.0380649053086789</v>
+        <v>0.02839210814297724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I13">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J13">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N13">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O13">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P13">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q13">
-        <v>4384.213361673008</v>
+        <v>1505.399332189895</v>
       </c>
       <c r="R13">
-        <v>39457.92025505706</v>
+        <v>13548.59398970906</v>
       </c>
       <c r="S13">
-        <v>0.07919160725249264</v>
+        <v>0.02760259704930487</v>
       </c>
       <c r="T13">
-        <v>0.1084774368829149</v>
+        <v>0.03740207961712493</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H14">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I14">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N14">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O14">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P14">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q14">
-        <v>1.207154442972</v>
+        <v>0.315784195408</v>
       </c>
       <c r="R14">
-        <v>7.242926657832</v>
+        <v>1.894705172448</v>
       </c>
       <c r="S14">
-        <v>2.180470991139462E-05</v>
+        <v>5.790134028893308E-06</v>
       </c>
       <c r="T14">
-        <v>1.991220303284625E-05</v>
+        <v>5.230499472100595E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H15">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I15">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.160829</v>
       </c>
       <c r="O15">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P15">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q15">
-        <v>0.2733813625008889</v>
+        <v>0.07597978957433334</v>
       </c>
       <c r="R15">
-        <v>2.460432262508</v>
+        <v>0.6838181061690001</v>
       </c>
       <c r="S15">
-        <v>4.938060195377969E-06</v>
+        <v>1.393144975333859E-06</v>
       </c>
       <c r="T15">
-        <v>6.764203073442325E-06</v>
+        <v>1.887739736683463E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H16">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I16">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N16">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O16">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P16">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q16">
-        <v>1.72763113352</v>
+        <v>1.049327080098</v>
       </c>
       <c r="R16">
-        <v>15.54868020168</v>
+        <v>9.443943720882</v>
       </c>
       <c r="S16">
-        <v>3.120602829208262E-05</v>
+        <v>1.924017896482973E-05</v>
       </c>
       <c r="T16">
-        <v>4.274632226654673E-05</v>
+        <v>2.607083326995916E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H17">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I17">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N17">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O17">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P17">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q17">
-        <v>14.39089049796533</v>
+        <v>3.5683539501795</v>
       </c>
       <c r="R17">
-        <v>86.34534298779199</v>
+        <v>21.410123701077</v>
       </c>
       <c r="S17">
-        <v>0.0002599412150629492</v>
+        <v>6.542837777988036E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002373800097305281</v>
+        <v>5.910452050511048E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H18">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I18">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N18">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O18">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P18">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q18">
-        <v>0.5755468354266667</v>
+        <v>0.1188191503066667</v>
       </c>
       <c r="R18">
-        <v>5.179921518840001</v>
+        <v>1.06937235276</v>
       </c>
       <c r="S18">
-        <v>1.039604489712402E-05</v>
+        <v>2.178635965571158E-06</v>
       </c>
       <c r="T18">
-        <v>1.424060381252363E-05</v>
+        <v>2.952095981964002E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H19">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I19">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N19">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O19">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P19">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q19">
-        <v>1.640194425990667</v>
+        <v>0.156525302645</v>
       </c>
       <c r="R19">
-        <v>14.761749833916</v>
+        <v>1.408727723805</v>
       </c>
       <c r="S19">
-        <v>2.962666779319673E-05</v>
+        <v>2.870005828051895E-06</v>
       </c>
       <c r="T19">
-        <v>4.058289883346734E-05</v>
+        <v>3.888916187511886E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H20">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I20">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J20">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N20">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O20">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P20">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q20">
-        <v>84.08537260801651</v>
+        <v>132.440974333448</v>
       </c>
       <c r="R20">
-        <v>336.3414904320661</v>
+        <v>529.763897333792</v>
       </c>
       <c r="S20">
-        <v>0.001518825671548188</v>
+        <v>0.002428402065268322</v>
       </c>
       <c r="T20">
-        <v>0.0009246676602214956</v>
+        <v>0.001462459608827822</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H21">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I21">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J21">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.160829</v>
       </c>
       <c r="O21">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P21">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q21">
-        <v>19.04261204007984</v>
+        <v>31.86618427142517</v>
       </c>
       <c r="R21">
-        <v>114.255672240479</v>
+        <v>191.197105628551</v>
       </c>
       <c r="S21">
-        <v>0.0003439647958109717</v>
+        <v>0.0005842897795520558</v>
       </c>
       <c r="T21">
-        <v>0.0003141108906365408</v>
+        <v>0.0005278163455716984</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H22">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I22">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J22">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N22">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O22">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P22">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q22">
-        <v>120.33962053239</v>
+        <v>440.091375387213</v>
       </c>
       <c r="R22">
-        <v>722.0377231943401</v>
+        <v>2640.548252323278</v>
       </c>
       <c r="S22">
-        <v>0.002173682524081913</v>
+        <v>0.008069397029701398</v>
       </c>
       <c r="T22">
-        <v>0.001985021030976899</v>
+        <v>0.007289464577746652</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H23">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I23">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J23">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N23">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O23">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P23">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q23">
-        <v>1002.409755211949</v>
+        <v>1496.579882086171</v>
       </c>
       <c r="R23">
-        <v>4009.639020847796</v>
+        <v>5986.319528344684</v>
       </c>
       <c r="S23">
-        <v>0.01810642710383962</v>
+        <v>0.02744088598553323</v>
       </c>
       <c r="T23">
-        <v>0.01102327139889093</v>
+        <v>0.01652575904058852</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H24">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I24">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J24">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N24">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O24">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P24">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q24">
-        <v>40.090205848945</v>
+        <v>49.83315905267334</v>
       </c>
       <c r="R24">
-        <v>240.54123509367</v>
+        <v>298.99895431604</v>
       </c>
       <c r="S24">
-        <v>0.0007241453766861693</v>
+        <v>0.0009137273941950633</v>
       </c>
       <c r="T24">
-        <v>0.0006612942719470316</v>
+        <v>0.0008254127847701322</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H25">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I25">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J25">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N25">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O25">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P25">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q25">
-        <v>114.2491420728805</v>
+        <v>65.64724863243251</v>
       </c>
       <c r="R25">
-        <v>685.494852437283</v>
+        <v>393.883491794595</v>
       </c>
       <c r="S25">
-        <v>0.00206367082110193</v>
+        <v>0.001203690285128936</v>
       </c>
       <c r="T25">
-        <v>0.001884557627674209</v>
+        <v>0.001087349855723957</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H26">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I26">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J26">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N26">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O26">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P26">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q26">
-        <v>36.608521266456</v>
+        <v>0.4527845693066667</v>
       </c>
       <c r="R26">
-        <v>219.651127598736</v>
+        <v>2.71670741584</v>
       </c>
       <c r="S26">
-        <v>0.000661256056461956</v>
+        <v>8.302136017646671E-06</v>
       </c>
       <c r="T26">
-        <v>0.0006038633353287089</v>
+        <v>7.499708614846714E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H27">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I27">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J27">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.160829</v>
       </c>
       <c r="O27">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P27">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q27">
-        <v>8.290643737620444</v>
+        <v>0.1089429958772222</v>
       </c>
       <c r="R27">
-        <v>74.61579363858399</v>
+        <v>0.9804869628950001</v>
       </c>
       <c r="S27">
-        <v>0.0001497530682424265</v>
+        <v>1.997549455644187E-06</v>
       </c>
       <c r="T27">
-        <v>0.0002051332151460955</v>
+        <v>2.706720083102831E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H28">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I28">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J28">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N28">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O28">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P28">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q28">
-        <v>52.39265071696</v>
+        <v>1.50456899659</v>
       </c>
       <c r="R28">
-        <v>471.53385645264</v>
+        <v>13.54112096931</v>
       </c>
       <c r="S28">
-        <v>0.000946363207312349</v>
+        <v>2.758737223919003E-05</v>
       </c>
       <c r="T28">
-        <v>0.001296337562163912</v>
+        <v>3.738144969019981E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H29">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I29">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J29">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N29">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O29">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P29">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q29">
-        <v>436.4223848118026</v>
+        <v>5.116454939672501</v>
       </c>
       <c r="R29">
-        <v>2618.534308870815</v>
+        <v>30.698729638035</v>
       </c>
       <c r="S29">
-        <v>0.00788305386693682</v>
+        <v>9.381394092640045E-05</v>
       </c>
       <c r="T29">
-        <v>0.007198856107472519</v>
+        <v>8.474653022583008E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H30">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I30">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J30">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N30">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O30">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P30">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q30">
-        <v>17.45420288781333</v>
+        <v>0.1703678606444445</v>
       </c>
       <c r="R30">
-        <v>157.08782599032</v>
+        <v>1.5333107458</v>
       </c>
       <c r="S30">
-        <v>0.0003152735202352427</v>
+        <v>3.123819246471891E-06</v>
       </c>
       <c r="T30">
-        <v>0.0004318647465144921</v>
+        <v>4.232838524481929E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H31">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I31">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J31">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N31">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O31">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P31">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q31">
-        <v>49.74101936548534</v>
+        <v>0.2244325168083333</v>
       </c>
       <c r="R31">
-        <v>447.669174289368</v>
+        <v>2.019892651275</v>
       </c>
       <c r="S31">
-        <v>0.0008984670555419783</v>
+        <v>4.115134232994547E-06</v>
       </c>
       <c r="T31">
-        <v>0.001230728945785674</v>
+        <v>5.576090465063487E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H32">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I32">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J32">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N32">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O32">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P32">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q32">
-        <v>4.33791377175</v>
+        <v>0.6655725114719999</v>
       </c>
       <c r="R32">
-        <v>26.0274826305</v>
+        <v>3.993435068832</v>
       </c>
       <c r="S32">
-        <v>7.835530239260892E-05</v>
+        <v>1.220375846356362E-05</v>
       </c>
       <c r="T32">
-        <v>7.155457221315086E-05</v>
+        <v>1.102422705291213E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H33">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I33">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J33">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.160829</v>
       </c>
       <c r="O33">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P33">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q33">
-        <v>0.982396895638889</v>
+        <v>0.160141198019</v>
       </c>
       <c r="R33">
-        <v>8.841572060750002</v>
+        <v>1.441270782171</v>
       </c>
       <c r="S33">
-        <v>1.774493682392672E-05</v>
+        <v>2.936305912585464E-06</v>
       </c>
       <c r="T33">
-        <v>2.430718773229893E-05</v>
+        <v>3.978754148625371E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H34">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I34">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J34">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N34">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O34">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P34">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q34">
-        <v>6.208248605</v>
+        <v>2.211647290182</v>
       </c>
       <c r="R34">
-        <v>55.87423744500001</v>
+        <v>19.904825611638</v>
       </c>
       <c r="S34">
-        <v>0.0001121389733334935</v>
+        <v>4.055216955442367E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001536090606560588</v>
+        <v>5.494901337046111E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H35">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I35">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J35">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N35">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O35">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P35">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q35">
-        <v>51.71371603883333</v>
+        <v>7.520953660690501</v>
       </c>
       <c r="R35">
-        <v>310.282296233</v>
+        <v>45.125721964143</v>
       </c>
       <c r="S35">
-        <v>0.0009340996781578765</v>
+        <v>0.0001379021824199583</v>
       </c>
       <c r="T35">
-        <v>0.0008530259067870504</v>
+        <v>0.0001245735053367972</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H36">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I36">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J36">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N36">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O36">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P36">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q36">
-        <v>2.068229594166667</v>
+        <v>0.25043292676</v>
       </c>
       <c r="R36">
-        <v>18.6140663475</v>
+        <v>2.25389634084</v>
       </c>
       <c r="S36">
-        <v>3.735822420529468E-05</v>
+        <v>4.591870753110169E-06</v>
       </c>
       <c r="T36">
-        <v>5.117366030173712E-05</v>
+        <v>6.222078132452362E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H37">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I37">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J37">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N37">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O37">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P37">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q37">
-        <v>5.894044486416667</v>
+        <v>0.329905487055</v>
       </c>
       <c r="R37">
-        <v>53.04640037775</v>
+        <v>2.969149383495</v>
       </c>
       <c r="S37">
-        <v>0.0001064635357798632</v>
+        <v>6.049058232467147E-06</v>
       </c>
       <c r="T37">
-        <v>0.0001458347908771425</v>
+        <v>8.196596762805656E-06</v>
       </c>
     </row>
   </sheetData>
